--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.860625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.790625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="21.290625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="21.290625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="27.470625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="27.470625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="28.730625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.730625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.930542" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.970625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.430625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.430625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.460625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -456,25 +456,25 @@
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
+      <x:c r="B1" s="2"/>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="s"/>
+      <x:c r="B2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s"/>
+      <x:c r="B3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="5" t="s"/>
+      <x:c r="B4" s="5"/>
     </x:row>
   </x:sheetData>
   <x:sheetProtection sheet="1" objects="1" scenarios="0" formatCells="0" insertColumns="0" deleteColumns="0" deleteRows="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Locked, No Hidden (Default):</x:t>
   </x:si>
@@ -448,7 +448,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="26.460625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="26.424911" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -438,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -487,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/SheetProtection.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Protected No-Password" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Protected Password = 123" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Protected No-Password" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Protected Password = 123" sheetId="2" r:id="rId3"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
